--- a/Localization.xlsx
+++ b/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\BrickController2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD6EBE1-87D2-4695-8745-C2CEFD3B6485}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1E4CEF-6442-440A-814B-4F1B961D6AC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{5807A82E-FA1F-4477-A668-54067E205773}"/>
   </bookViews>
@@ -1299,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C856BF-430E-4D80-BAC9-CEE3C6AE5853}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C84"/>
     </sheetView>
   </sheetViews>
